--- a/template/invoiceTem5.xlsx
+++ b/template/invoiceTem5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{07A669C3-C193-6D4D-B129-01911A1BF950}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{95FD9147-0E4D-BE4D-853F-F6C8A0373023}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16900" yWindow="740" windowWidth="23040" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21960" yWindow="600" windowWidth="23040" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="013075" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -494,15 +494,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,33 +537,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -558,7 +564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -857,7 +863,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -880,20 +886,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -910,20 +916,20 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -940,20 +946,20 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -970,18 +976,18 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1026,20 +1032,20 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1148,14 +1154,14 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="12" t="s">
         <v>6</v>
       </c>
@@ -1182,10 +1188,10 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="51"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1508,8 +1514,8 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="34"/>
@@ -1536,8 +1542,8 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="34"/>
@@ -1704,8 +1710,8 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="34"/>
@@ -1732,8 +1738,8 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A30" s="60"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="34"/>
@@ -1820,14 +1826,14 @@
       <c r="B33" s="47"/>
       <c r="C33" s="2"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="62"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="5"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="64"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
       <c r="M33" s="29"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -2046,12 +2052,12 @@
       <c r="D41" s="5"/>
       <c r="E41" s="34"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="56"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="63"/>
       <c r="K41" s="48"/>
       <c r="L41" s="49"/>
       <c r="M41" s="4"/>
@@ -2083,7 +2089,7 @@
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="31"/>
-      <c r="L42" s="67"/>
+      <c r="L42" s="55"/>
       <c r="M42" s="4"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -2312,9 +2318,9 @@
         <v>22</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
       <c r="J50" s="43"/>
       <c r="K50" s="42"/>
       <c r="L50" s="41"/>
@@ -2340,9 +2346,9 @@
       <c r="D51" s="4"/>
       <c r="E51" s="15"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
       <c r="J51" s="43"/>
       <c r="K51" s="42"/>
       <c r="L51" s="41"/>
@@ -28974,19 +28980,15 @@
       <c r="Z1001" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="9">
     <mergeCell ref="G50:I51"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="G41:J41"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
